--- a/artfynd/A 42997-2018.xlsx
+++ b/artfynd/A 42997-2018.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>180910</v>
+        <v>182234</v>
       </c>
       <c r="B2" t="n">
-        <v>104450</v>
+        <v>104451</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Mästocka militäromr, nyanlagd väg, Hl</t>
+          <t>Mästocka skjutfält, Ringvägen (12), Hl</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -740,7 +740,7 @@
         <v>6280462.194777449</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -762,9 +762,14 @@
           <t>Veinge</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>N-Lah-0790</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2008-09-01</t>
+          <t>2010-08-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -774,7 +779,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2008-09-01</t>
+          <t>2010-08-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -791,23 +796,22 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Grusig vägkant</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
+          <t>Halland Floraväktarna</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
           <t>Lars-Erik Magnusson</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>Lars-Erik Magnusson, Sven Erik Jönsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
